--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ckap4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="H2">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="I2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="J2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.6670321541654</v>
+        <v>16.934698</v>
       </c>
       <c r="N2">
-        <v>16.6670321541654</v>
+        <v>50.80409399999999</v>
       </c>
       <c r="O2">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="P2">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="Q2">
-        <v>45.22537985124545</v>
+        <v>47.01689152297133</v>
       </c>
       <c r="R2">
-        <v>45.22537985124545</v>
+        <v>423.1520237067419</v>
       </c>
       <c r="S2">
-        <v>0.02347719838419497</v>
+        <v>0.02388026584783836</v>
       </c>
       <c r="T2">
-        <v>0.02347719838419497</v>
+        <v>0.02388026584783836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="H3">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="I3">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="J3">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.4218629828526</v>
+        <v>89.44543166666666</v>
       </c>
       <c r="N3">
-        <v>89.4218629828526</v>
+        <v>268.336295</v>
       </c>
       <c r="O3">
-        <v>0.575917257234184</v>
+        <v>0.5716768006978669</v>
       </c>
       <c r="P3">
-        <v>0.575917257234184</v>
+        <v>0.571676800697867</v>
       </c>
       <c r="Q3">
-        <v>242.6429422466092</v>
+        <v>248.3331062589372</v>
       </c>
       <c r="R3">
-        <v>242.6429422466092</v>
+        <v>2234.997956330435</v>
       </c>
       <c r="S3">
-        <v>0.1259597268256339</v>
+        <v>0.1261304268357581</v>
       </c>
       <c r="T3">
-        <v>0.1259597268256339</v>
+        <v>0.1261304268357581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="H4">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="I4">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="J4">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7051572838873</v>
+        <v>23.7309</v>
       </c>
       <c r="N4">
-        <v>23.7051572838873</v>
+        <v>71.1927</v>
       </c>
       <c r="O4">
-        <v>0.1526719384929303</v>
+        <v>0.1516724190033369</v>
       </c>
       <c r="P4">
-        <v>0.1526719384929303</v>
+        <v>0.151672419003337</v>
       </c>
       <c r="Q4">
-        <v>64.32307399907366</v>
+        <v>65.88562435790001</v>
       </c>
       <c r="R4">
-        <v>64.32307399907366</v>
+        <v>592.9706192211</v>
       </c>
       <c r="S4">
-        <v>0.03339110857497681</v>
+        <v>0.0334638504216885</v>
       </c>
       <c r="T4">
-        <v>0.03339110857497681</v>
+        <v>0.0334638504216885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="H5">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="I5">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="J5">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.5116913417297</v>
+        <v>17.83094833333334</v>
       </c>
       <c r="N5">
-        <v>17.5116913417297</v>
+        <v>53.492845</v>
       </c>
       <c r="O5">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="P5">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="Q5">
-        <v>47.5173315466103</v>
+        <v>49.50520898217612</v>
       </c>
       <c r="R5">
-        <v>47.5173315466103</v>
+        <v>445.546880839585</v>
       </c>
       <c r="S5">
-        <v>0.02466698617185002</v>
+        <v>0.02514410274804253</v>
       </c>
       <c r="T5">
-        <v>0.02466698617185002</v>
+        <v>0.02514410274804253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="H6">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="I6">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="J6">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.96285057033734</v>
+        <v>8.519560333333333</v>
       </c>
       <c r="N6">
-        <v>7.96285057033734</v>
+        <v>25.558681</v>
       </c>
       <c r="O6">
-        <v>0.05128436052728774</v>
+        <v>0.05445146726847874</v>
       </c>
       <c r="P6">
-        <v>0.05128436052728774</v>
+        <v>0.05445146726847875</v>
       </c>
       <c r="Q6">
-        <v>21.60690268136378</v>
+        <v>23.65340344514811</v>
       </c>
       <c r="R6">
-        <v>21.60690268136378</v>
+        <v>212.880631006333</v>
       </c>
       <c r="S6">
-        <v>0.01121647938363092</v>
+        <v>0.01201375812351058</v>
       </c>
       <c r="T6">
-        <v>0.01121647938363092</v>
+        <v>0.01201375812351058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="H7">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="I7">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="J7">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.6670321541654</v>
+        <v>16.934698</v>
       </c>
       <c r="N7">
-        <v>16.6670321541654</v>
+        <v>50.80409399999999</v>
       </c>
       <c r="O7">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="P7">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="Q7">
-        <v>146.4606672495584</v>
+        <v>149.1646359359493</v>
       </c>
       <c r="R7">
-        <v>146.4606672495584</v>
+        <v>1342.481723423544</v>
       </c>
       <c r="S7">
-        <v>0.0760300112859032</v>
+        <v>0.07576194524697874</v>
       </c>
       <c r="T7">
-        <v>0.0760300112859032</v>
+        <v>0.07576194524697874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="H8">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="I8">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="J8">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.4218629828526</v>
+        <v>89.44543166666666</v>
       </c>
       <c r="N8">
-        <v>89.4218629828526</v>
+        <v>268.336295</v>
       </c>
       <c r="O8">
-        <v>0.575917257234184</v>
+        <v>0.5716768006978669</v>
       </c>
       <c r="P8">
-        <v>0.575917257234184</v>
+        <v>0.571676800697867</v>
       </c>
       <c r="Q8">
-        <v>785.7899113666767</v>
+        <v>787.8555171572688</v>
       </c>
       <c r="R8">
-        <v>785.7899113666767</v>
+        <v>7090.69965441542</v>
       </c>
       <c r="S8">
-        <v>0.407915769820702</v>
+        <v>0.4001582960925775</v>
       </c>
       <c r="T8">
-        <v>0.407915769820702</v>
+        <v>0.4001582960925775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="H9">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="I9">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="J9">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.7051572838873</v>
+        <v>23.7309</v>
       </c>
       <c r="N9">
-        <v>23.7051572838873</v>
+        <v>71.1927</v>
       </c>
       <c r="O9">
-        <v>0.1526719384929303</v>
+        <v>0.1516724190033369</v>
       </c>
       <c r="P9">
-        <v>0.1526719384929303</v>
+        <v>0.151672419003337</v>
       </c>
       <c r="Q9">
-        <v>208.3078211489607</v>
+        <v>209.0271145628</v>
       </c>
       <c r="R9">
-        <v>208.3078211489607</v>
+        <v>1881.2440310652</v>
       </c>
       <c r="S9">
-        <v>0.1081358312120153</v>
+        <v>0.1061665904205394</v>
       </c>
       <c r="T9">
-        <v>0.1081358312120153</v>
+        <v>0.1061665904205394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="H10">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="I10">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="J10">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.5116913417297</v>
+        <v>17.83094833333334</v>
       </c>
       <c r="N10">
-        <v>17.5116913417297</v>
+        <v>53.492845</v>
       </c>
       <c r="O10">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="P10">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="Q10">
-        <v>153.8830653744832</v>
+        <v>157.0590108270245</v>
       </c>
       <c r="R10">
-        <v>153.8830653744832</v>
+        <v>1413.53109744322</v>
       </c>
       <c r="S10">
-        <v>0.07988309364449252</v>
+        <v>0.07977156317353325</v>
       </c>
       <c r="T10">
-        <v>0.07988309364449252</v>
+        <v>0.07977156317353323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="H11">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="I11">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="J11">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.96285057033734</v>
+        <v>8.519560333333333</v>
       </c>
       <c r="N11">
-        <v>7.96285057033734</v>
+        <v>25.558681</v>
       </c>
       <c r="O11">
-        <v>0.05128436052728774</v>
+        <v>0.05445146726847874</v>
       </c>
       <c r="P11">
-        <v>0.05128436052728774</v>
+        <v>0.05445146726847875</v>
       </c>
       <c r="Q11">
-        <v>69.97313000615215</v>
+        <v>75.04220715692843</v>
       </c>
       <c r="R11">
-        <v>69.97313000615215</v>
+        <v>675.3798644123559</v>
       </c>
       <c r="S11">
-        <v>0.03632414056268584</v>
+        <v>0.0381145541244569</v>
       </c>
       <c r="T11">
-        <v>0.03632414056268584</v>
+        <v>0.0381145541244569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="H12">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I12">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="J12">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.6670321541654</v>
+        <v>16.934698</v>
       </c>
       <c r="N12">
-        <v>16.6670321541654</v>
+        <v>50.80409399999999</v>
       </c>
       <c r="O12">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="P12">
-        <v>0.1073432282024984</v>
+        <v>0.1082355330287082</v>
       </c>
       <c r="Q12">
-        <v>15.09494058233859</v>
+        <v>0.05149841661799999</v>
       </c>
       <c r="R12">
-        <v>15.09494058233859</v>
+        <v>0.4634857495619999</v>
       </c>
       <c r="S12">
-        <v>0.007836018532400216</v>
+        <v>2.615646929741682E-05</v>
       </c>
       <c r="T12">
-        <v>0.007836018532400216</v>
+        <v>2.615646929741682E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="H13">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I13">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="J13">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>89.4218629828526</v>
+        <v>89.44543166666666</v>
       </c>
       <c r="N13">
-        <v>89.4218629828526</v>
+        <v>268.336295</v>
       </c>
       <c r="O13">
-        <v>0.575917257234184</v>
+        <v>0.5716768006978669</v>
       </c>
       <c r="P13">
-        <v>0.575917257234184</v>
+        <v>0.571676800697867</v>
       </c>
       <c r="Q13">
-        <v>80.98728651884423</v>
+        <v>0.2720035576983333</v>
       </c>
       <c r="R13">
-        <v>80.98728651884423</v>
+        <v>2.448032019285</v>
       </c>
       <c r="S13">
-        <v>0.04204176058784797</v>
+        <v>0.0001381528437757414</v>
       </c>
       <c r="T13">
-        <v>0.04204176058784797</v>
+        <v>0.0001381528437757414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="H14">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I14">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="J14">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.7051572838873</v>
+        <v>23.7309</v>
       </c>
       <c r="N14">
-        <v>23.7051572838873</v>
+        <v>71.1927</v>
       </c>
       <c r="O14">
-        <v>0.1526719384929303</v>
+        <v>0.1516724190033369</v>
       </c>
       <c r="P14">
-        <v>0.1526719384929303</v>
+        <v>0.151672419003337</v>
       </c>
       <c r="Q14">
-        <v>21.46920563814007</v>
+        <v>0.07216566690000001</v>
       </c>
       <c r="R14">
-        <v>21.46920563814007</v>
+        <v>0.6494910021</v>
       </c>
       <c r="S14">
-        <v>0.01114499870593814</v>
+        <v>3.665353567273942E-05</v>
       </c>
       <c r="T14">
-        <v>0.01114499870593814</v>
+        <v>3.665353567273942E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="H15">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I15">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="J15">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.5116913417297</v>
+        <v>17.83094833333334</v>
       </c>
       <c r="N15">
-        <v>17.5116913417297</v>
+        <v>53.492845</v>
       </c>
       <c r="O15">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="P15">
-        <v>0.1127832155430995</v>
+        <v>0.1139637800016091</v>
       </c>
       <c r="Q15">
-        <v>15.85992862164126</v>
+        <v>0.05422391388166667</v>
       </c>
       <c r="R15">
-        <v>15.85992862164126</v>
+        <v>0.488015224935</v>
       </c>
       <c r="S15">
-        <v>0.00823313572675697</v>
+        <v>2.754077177075487E-05</v>
       </c>
       <c r="T15">
-        <v>0.00823313572675697</v>
+        <v>2.754077177075487E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.003041</v>
+      </c>
+      <c r="H16">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="J16">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.519560333333333</v>
+      </c>
+      <c r="N16">
+        <v>25.558681</v>
+      </c>
+      <c r="O16">
+        <v>0.05445146726847874</v>
+      </c>
+      <c r="P16">
+        <v>0.05445146726847875</v>
+      </c>
+      <c r="Q16">
+        <v>0.02590798297366666</v>
+      </c>
+      <c r="R16">
+        <v>0.233171846763</v>
+      </c>
+      <c r="S16">
+        <v>1.315887760657577E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.315887760657577E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003928</v>
+      </c>
+      <c r="H17">
+        <v>0.011784</v>
+      </c>
+      <c r="I17">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="J17">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.934698</v>
+      </c>
+      <c r="N17">
+        <v>50.80409399999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1082355330287082</v>
+      </c>
+      <c r="P17">
+        <v>0.1082355330287082</v>
+      </c>
+      <c r="Q17">
+        <v>0.06651949374399999</v>
+      </c>
+      <c r="R17">
+        <v>0.5986754436959999</v>
+      </c>
+      <c r="S17">
+        <v>3.378579789551242E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.378579789551241E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.003928</v>
+      </c>
+      <c r="H18">
+        <v>0.011784</v>
+      </c>
+      <c r="I18">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="J18">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>89.44543166666666</v>
+      </c>
+      <c r="N18">
+        <v>268.336295</v>
+      </c>
+      <c r="O18">
+        <v>0.5716768006978669</v>
+      </c>
+      <c r="P18">
+        <v>0.571676800697867</v>
+      </c>
+      <c r="Q18">
+        <v>0.3513416555866667</v>
+      </c>
+      <c r="R18">
+        <v>3.16207490028</v>
+      </c>
+      <c r="S18">
+        <v>0.0001784493161299284</v>
+      </c>
+      <c r="T18">
+        <v>0.0001784493161299284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.003928</v>
+      </c>
+      <c r="H19">
+        <v>0.011784</v>
+      </c>
+      <c r="I19">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="J19">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.7309</v>
+      </c>
+      <c r="N19">
+        <v>71.1927</v>
+      </c>
+      <c r="O19">
+        <v>0.1516724190033369</v>
+      </c>
+      <c r="P19">
+        <v>0.151672419003337</v>
+      </c>
+      <c r="Q19">
+        <v>0.09321497520000001</v>
+      </c>
+      <c r="R19">
+        <v>0.8389347767999999</v>
+      </c>
+      <c r="S19">
+        <v>4.734465245725763E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.734465245725763E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.003928</v>
+      </c>
+      <c r="H20">
+        <v>0.011784</v>
+      </c>
+      <c r="I20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="J20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.83094833333334</v>
+      </c>
+      <c r="N20">
+        <v>53.492845</v>
+      </c>
+      <c r="O20">
+        <v>0.1139637800016091</v>
+      </c>
+      <c r="P20">
+        <v>0.1139637800016091</v>
+      </c>
+      <c r="Q20">
+        <v>0.07003996505333335</v>
+      </c>
+      <c r="R20">
+        <v>0.63035968548</v>
+      </c>
+      <c r="S20">
+        <v>3.557387422411218E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.557387422411218E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.003928</v>
+      </c>
+      <c r="H21">
+        <v>0.011784</v>
+      </c>
+      <c r="I21">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="J21">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.519560333333333</v>
+      </c>
+      <c r="N21">
+        <v>25.558681</v>
+      </c>
+      <c r="O21">
+        <v>0.05445146726847874</v>
+      </c>
+      <c r="P21">
+        <v>0.05445146726847875</v>
+      </c>
+      <c r="Q21">
+        <v>0.03346483298933333</v>
+      </c>
+      <c r="R21">
+        <v>0.301183496904</v>
+      </c>
+      <c r="S21">
+        <v>1.699706387327512E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.699706387327512E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="H22">
+        <v>2.97632</v>
+      </c>
+      <c r="I22">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="J22">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.934698</v>
+      </c>
+      <c r="N22">
+        <v>50.80409399999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1082355330287082</v>
+      </c>
+      <c r="P22">
+        <v>0.1082355330287082</v>
+      </c>
+      <c r="Q22">
+        <v>16.80102678378667</v>
+      </c>
+      <c r="R22">
+        <v>151.20924105408</v>
+      </c>
+      <c r="S22">
+        <v>0.008533379666698196</v>
+      </c>
+      <c r="T22">
+        <v>0.008533379666698194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="H23">
+        <v>2.97632</v>
+      </c>
+      <c r="I23">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="J23">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>89.44543166666666</v>
+      </c>
+      <c r="N23">
+        <v>268.336295</v>
+      </c>
+      <c r="O23">
+        <v>0.5716768006978669</v>
+      </c>
+      <c r="P23">
+        <v>0.571676800697867</v>
+      </c>
+      <c r="Q23">
+        <v>88.73940905937779</v>
+      </c>
+      <c r="R23">
+        <v>798.6546815344001</v>
+      </c>
+      <c r="S23">
+        <v>0.04507147560962565</v>
+      </c>
+      <c r="T23">
+        <v>0.04507147560962565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="H16">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="I16">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="J16">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.96285057033734</v>
-      </c>
-      <c r="N16">
-        <v>7.96285057033734</v>
-      </c>
-      <c r="O16">
-        <v>0.05128436052728774</v>
-      </c>
-      <c r="P16">
-        <v>0.05128436052728774</v>
-      </c>
-      <c r="Q16">
-        <v>7.211767224871118</v>
-      </c>
-      <c r="R16">
-        <v>7.211767224871118</v>
-      </c>
-      <c r="S16">
-        <v>0.00374374058097097</v>
-      </c>
-      <c r="T16">
-        <v>0.00374374058097097</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="H24">
+        <v>2.97632</v>
+      </c>
+      <c r="I24">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="J24">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.7309</v>
+      </c>
+      <c r="N24">
+        <v>71.1927</v>
+      </c>
+      <c r="O24">
+        <v>0.1516724190033369</v>
+      </c>
+      <c r="P24">
+        <v>0.151672419003337</v>
+      </c>
+      <c r="Q24">
+        <v>23.543584096</v>
+      </c>
+      <c r="R24">
+        <v>211.892256864</v>
+      </c>
+      <c r="S24">
+        <v>0.01195797997297904</v>
+      </c>
+      <c r="T24">
+        <v>0.01195797997297904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.97632</v>
+      </c>
+      <c r="I25">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="J25">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.83094833333334</v>
+      </c>
+      <c r="N25">
+        <v>53.492845</v>
+      </c>
+      <c r="O25">
+        <v>0.1139637800016091</v>
+      </c>
+      <c r="P25">
+        <v>0.1139637800016091</v>
+      </c>
+      <c r="Q25">
+        <v>17.69020271448889</v>
+      </c>
+      <c r="R25">
+        <v>159.2118244304</v>
+      </c>
+      <c r="S25">
+        <v>0.008984999434038491</v>
+      </c>
+      <c r="T25">
+        <v>0.00898499943403849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.97632</v>
+      </c>
+      <c r="I26">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="J26">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.519560333333333</v>
+      </c>
+      <c r="N26">
+        <v>25.558681</v>
+      </c>
+      <c r="O26">
+        <v>0.05445146726847874</v>
+      </c>
+      <c r="P26">
+        <v>0.05445146726847875</v>
+      </c>
+      <c r="Q26">
+        <v>8.45231260376889</v>
+      </c>
+      <c r="R26">
+        <v>76.07081343392001</v>
+      </c>
+      <c r="S26">
+        <v>0.004292999079031416</v>
+      </c>
+      <c r="T26">
+        <v>0.004292999079031416</v>
       </c>
     </row>
   </sheetData>
